--- a/content/section4/1.2-navigate/1212.xlsx
+++ b/content/section4/1.2-navigate/1212.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\surana\2025\excel\workshop\content\section4\1.2-navigate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\surana\2026\excel\workshop\content\section4\1.2-navigate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E816D4-B4F7-41EC-8C77-478E3B797004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EFEA0B-372E-48D6-B8C0-D41F442B57C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,7 @@
     <definedName name="Subtotal">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,6 +49,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>David Murphy</author>
+    <author>tc={20DB4291-474B-4407-BEFF-056324537886}</author>
   </authors>
   <commentList>
     <comment ref="A11" authorId="0" shapeId="0" xr:uid="{5141EACC-5B3A-4F33-BC24-37B37BD3409F}">
@@ -70,9 +72,17 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-My comment
+Updated comment
 </t>
         </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="1" shapeId="0" xr:uid="{20DB4291-474B-4407-BEFF-056324537886}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Demonstration of comment</t>
       </text>
     </comment>
   </commentList>
@@ -207,9 +217,6 @@
     <t>New Brand Launch Parties</t>
   </si>
   <si>
-    <t>Aircraft Livery Changes</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -355,6 +362,9 @@
   </si>
   <si>
     <t>Q5</t>
+  </si>
+  <si>
+    <t>Maintenance Schedule Livery Changes</t>
   </si>
 </sst>
 </file>
@@ -2332,6 +2342,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="raghu prasad konandur" id="{21D192C6-C5F5-473B-9C64-E145F3A38D42}" userId="ca0749244a5ef575" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="bowtielearning">
   <a:themeElements>
@@ -2622,12 +2638,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A13" dT="2026-02-10T06:46:29.73" personId="{21D192C6-C5F5-473B-9C64-E145F3A38D42}" id="{20DB4291-474B-4407-BEFF-056324537886}">
+    <text>Demonstration of comment</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2646,7 +2670,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -2657,12 +2681,12 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>2017</v>
@@ -2685,7 +2709,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>21000</v>
@@ -2754,7 +2778,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>1000</v>
@@ -2800,7 +2824,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1">
         <v>98000</v>
@@ -2823,7 +2847,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>56000</v>
@@ -2846,7 +2870,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="12">
         <f>SUM(B4:B10)</f>
@@ -2857,7 +2881,7 @@
         <v>281000</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" ref="D11:G11" si="0">SUM(D4:D10)</f>
+        <f t="shared" ref="D11:F11" si="0">SUM(D4:D10)</f>
         <v>320000</v>
       </c>
       <c r="E11" s="13">
@@ -2876,9 +2900,10 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O12" s="10"/>
     </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3"/>
     <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="14"/>
     </row>
@@ -2929,7 +2954,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -2943,260 +2968,260 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="P1" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="K4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3230,12 +3255,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3243,7 +3268,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3251,7 +3276,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3259,7 +3284,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3267,7 +3292,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3295,7 +3320,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3306,7 +3331,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>2017</v>
@@ -3329,7 +3354,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8">
         <v>324</v>
@@ -3352,7 +3377,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="8">
         <v>15</v>
@@ -3375,7 +3400,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="8">
         <v>32</v>
@@ -3398,7 +3423,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8">
         <v>111</v>
@@ -3421,7 +3446,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
@@ -3444,7 +3469,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8">
         <v>5</v>
@@ -3467,7 +3492,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8">
         <v>6</v>
@@ -3490,7 +3515,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="8">
         <f>SUM(B4:B10)</f>
@@ -3519,7 +3544,7 @@
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C38" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="14"/>
     </row>
